--- a/biology/Zoologie/Atractaspis_corpulenta/Atractaspis_corpulenta.xlsx
+++ b/biology/Zoologie/Atractaspis_corpulenta/Atractaspis_corpulenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis corpulenta est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis corpulenta est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en République démocratique du Congo ;
 en République du Congo ;
 au Gabon ;
@@ -549,9 +563,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Atractaspis corpulenta corpulenta (Hallowell, 1854)
 Atractaspis corpulenta kivuensis Laurent, 1958
 Atractaspis corpulenta leucura Mocquard, 1885</t>
@@ -613,7 +631,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hallowell, 1854 : Remarks on the geographical distribution of reptiles, with descriptions of several species supposed to be new, and corrections of former papers. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 7, p. 98-105 (texte intégral).
 Laurent, 1958 : Notes herpetologiques africaines II. Revue de Zoologie et de Botanique Africaines, vol. 58, p. 115-128.
